--- a/PFOA inhalation Rat/Params R - MatLab.xlsx
+++ b/PFOA inhalation Rat/Params R - MatLab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\R_examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{4F02C880-8719-43E7-ADA7-B562756460F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF206E0-3D7B-4541-AA22-CA9C3542CB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="341">
   <si>
     <t>$PVKB</t>
   </si>
@@ -1053,12 +1053,18 @@
   </si>
   <si>
     <t>MATLAB</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1085,7 +1091,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1095,6 +1101,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1132,7 +1144,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1448,11 +1469,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="F171" sqref="F171"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1843,7 +1864,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>175</v>
       </c>
@@ -1851,7 +1872,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>183</v>
       </c>
@@ -1859,7 +1880,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>218</v>
       </c>
@@ -1867,7 +1888,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>216</v>
       </c>
@@ -1875,7 +1896,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>198</v>
       </c>
@@ -1883,7 +1904,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>208</v>
       </c>
@@ -1891,7 +1912,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>224</v>
       </c>
@@ -1899,7 +1920,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>196</v>
       </c>
@@ -1907,7 +1928,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>204</v>
       </c>
@@ -1915,7 +1936,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>212</v>
       </c>
@@ -1923,7 +1944,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>220</v>
       </c>
@@ -1931,7 +1952,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>202</v>
       </c>
@@ -1939,7 +1960,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>210</v>
       </c>
@@ -1950,7 +1971,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>210</v>
       </c>
@@ -1963,8 +1984,11 @@
       <c r="E62" s="1">
         <v>2.676924E-8</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>194</v>
       </c>
@@ -1972,7 +1996,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>200</v>
       </c>
@@ -2136,10 +2160,10 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="15" t="s">
         <v>310</v>
       </c>
       <c r="D84" s="1">
@@ -2147,10 +2171,10 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="15" t="s">
         <v>310</v>
       </c>
       <c r="D85" s="1">
@@ -2158,10 +2182,10 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="15" t="s">
         <v>310</v>
       </c>
       <c r="D86" s="1">
@@ -2169,10 +2193,10 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="15" t="s">
         <v>318</v>
       </c>
       <c r="D87" s="1">
@@ -2180,10 +2204,10 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="15" t="s">
         <v>318</v>
       </c>
       <c r="D88" s="1">
@@ -2191,10 +2215,10 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="15" t="s">
         <v>318</v>
       </c>
       <c r="D89" s="1">
@@ -2257,7 +2281,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -2265,7 +2289,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>297</v>
       </c>
@@ -2273,7 +2297,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>289</v>
       </c>
@@ -2281,7 +2305,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>301</v>
       </c>
@@ -2289,7 +2313,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>293</v>
       </c>
@@ -2297,7 +2321,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>128</v>
       </c>
@@ -2305,7 +2329,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>120</v>
       </c>
@@ -2313,7 +2337,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>126</v>
       </c>
@@ -2321,7 +2345,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>122</v>
       </c>
@@ -2329,7 +2353,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -2337,7 +2361,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>129</v>
       </c>
@@ -2345,7 +2369,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>130</v>
       </c>
@@ -2353,7 +2377,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>154</v>
       </c>
@@ -2361,7 +2385,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>142</v>
       </c>
@@ -2369,7 +2393,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>164</v>
       </c>
@@ -2380,7 +2404,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>139</v>
       </c>
@@ -2390,8 +2414,11 @@
       <c r="D112">
         <v>0.14099999999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>146</v>
       </c>
@@ -2399,7 +2426,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>150</v>
       </c>
@@ -2407,7 +2434,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>158</v>
       </c>
@@ -2415,15 +2442,18 @@
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>170</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D116" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>168</v>
       </c>
@@ -2433,8 +2463,11 @@
       <c r="D117">
         <v>200</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -2442,7 +2475,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>66</v>
       </c>
@@ -2450,7 +2483,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>70</v>
       </c>
@@ -2458,7 +2491,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -2466,7 +2499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>30</v>
       </c>
@@ -2474,7 +2507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>34</v>
       </c>
@@ -2482,7 +2515,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>38</v>
       </c>
@@ -2490,7 +2523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>44</v>
       </c>
@@ -2498,7 +2531,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -2506,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -2514,7 +2547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -2522,7 +2555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -2530,7 +2563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -2538,7 +2571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>48</v>
       </c>
@@ -2546,7 +2579,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>52</v>
       </c>
@@ -2554,7 +2587,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>56</v>
       </c>
@@ -2562,7 +2595,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>76</v>
       </c>
@@ -2570,7 +2603,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>80</v>
       </c>
@@ -2578,7 +2611,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>84</v>
       </c>
@@ -2586,7 +2619,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>156</v>
       </c>
@@ -2594,7 +2627,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -2602,23 +2635,29 @@
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D139" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D140" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -2626,7 +2665,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -2634,7 +2673,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>152</v>
       </c>
@@ -2642,7 +2681,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>160</v>
       </c>
@@ -2778,7 +2817,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -2786,7 +2825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -2794,7 +2833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -2802,7 +2841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>14</v>
       </c>
@@ -2810,7 +2849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>18</v>
       </c>
@@ -2818,7 +2857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>22</v>
       </c>
@@ -2826,7 +2865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>24</v>
       </c>
@@ -2834,7 +2873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>50</v>
       </c>
@@ -2842,7 +2881,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>54</v>
       </c>
@@ -2850,7 +2889,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>58</v>
       </c>
@@ -2858,7 +2897,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>60</v>
       </c>
@@ -2866,7 +2905,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>78</v>
       </c>
@@ -2874,7 +2913,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>82</v>
       </c>
@@ -2882,7 +2921,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>86</v>
       </c>
@@ -2890,37 +2929,40 @@
         <v>87</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>88</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D175" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C175" s="11"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="11"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>334</v>
       </c>
-      <c r="B176" s="10">
+      <c r="B176" s="13">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>333</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="13">
         <v>5.3999999999999998E-5</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>329</v>
       </c>
@@ -2928,7 +2970,7 @@
         <v>7.3000000000000004E-6</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>331</v>
       </c>
@@ -2936,7 +2978,7 @@
         <v>3.1199999999999999E-5</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>332</v>
       </c>
@@ -2944,7 +2986,7 @@
         <v>1.3176000000000001E-5</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>335</v>
       </c>
@@ -2952,7 +2994,7 @@
         <v>1.7812E-6</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>330</v>
       </c>

--- a/PFOA inhalation Rat/Params R - MatLab.xlsx
+++ b/PFOA inhalation Rat/Params R - MatLab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF206E0-3D7B-4541-AA22-CA9C3542CB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB319203-61D5-499C-873C-477869D677C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17790" yWindow="345" windowWidth="14340" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1065,6 +1065,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.000000000E+00"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1123,7 +1126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1144,18 +1147,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1472,14 +1469,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -2160,10 +2158,10 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="12" t="s">
         <v>310</v>
       </c>
       <c r="D84" s="1">
@@ -2171,10 +2169,10 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="12" t="s">
         <v>310</v>
       </c>
       <c r="D85" s="1">
@@ -2182,10 +2180,10 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="12" t="s">
         <v>310</v>
       </c>
       <c r="D86" s="1">
@@ -2193,35 +2191,35 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="13">
         <v>1.1084090200887701E-6</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="13">
         <v>1.12240986746287E-6</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="13">
         <v>1.1261438991228001E-6</v>
       </c>
     </row>
@@ -2817,7 +2815,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -2825,7 +2823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -2833,7 +2831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -2841,7 +2839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>14</v>
       </c>
@@ -2849,7 +2847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>18</v>
       </c>
@@ -2857,7 +2855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>22</v>
       </c>
@@ -2865,7 +2863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>24</v>
       </c>
@@ -2873,7 +2871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>50</v>
       </c>
@@ -2881,7 +2879,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>54</v>
       </c>
@@ -2889,7 +2887,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>58</v>
       </c>
@@ -2897,7 +2895,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>60</v>
       </c>
@@ -2905,7 +2903,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>78</v>
       </c>
@@ -2913,7 +2911,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>82</v>
       </c>
@@ -2921,7 +2919,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>86</v>
       </c>
@@ -2929,40 +2927,32 @@
         <v>87</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>88</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C175" s="11"/>
-      <c r="D175" s="12"/>
-      <c r="E175" s="11"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D175" s="10"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>334</v>
       </c>
-      <c r="B176" s="13">
+      <c r="B176" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="11"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>333</v>
       </c>
-      <c r="B177" s="13">
+      <c r="B177" s="2">
         <v>5.3999999999999998E-5</v>
       </c>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
-      <c r="E177" s="11"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>329</v>
       </c>
@@ -2970,7 +2960,7 @@
         <v>7.3000000000000004E-6</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>331</v>
       </c>
@@ -2978,7 +2968,7 @@
         <v>3.1199999999999999E-5</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>332</v>
       </c>
@@ -2986,7 +2976,7 @@
         <v>1.3176000000000001E-5</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>335</v>
       </c>
@@ -2994,7 +2984,7 @@
         <v>1.7812E-6</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>330</v>
       </c>
